--- a/First Part/YallaKora Bug Report.xlsx
+++ b/First Part/YallaKora Bug Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Vodafone Task\First Part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E81EEA-F3E0-4C45-B740-07EEC3DA014F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F56CBC-EF18-43AF-9359-70D5C23F7439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,72 +90,27 @@
     <t>No data displayed in "دقيقة بدقيقة" for live matches.</t>
   </si>
   <si>
-    <t>1- Open the app.
-2- Navigate to the “مباريات” tab.
-3- Click on live button in the top menu.
-4- Click on any match in "مباريات مباشرة الان"
-5- Click on "دقيقة بدقيقة"</t>
-  </si>
-  <si>
-    <t>User cannot add favorite team via search functionality</t>
-  </si>
-  <si>
     <t>No data displayed.</t>
   </si>
   <si>
     <t>Mahmoud Mesalem</t>
   </si>
   <si>
-    <t xml:space="preserve">Wrong league results displayed after updating the keyword in "بحث عن فرقة او منتخب" search bar </t>
-  </si>
-  <si>
     <t>Delete team is not saved when using the device’s native back button instead of the in-app back icon.</t>
   </si>
   <si>
-    <t>League does not open on selection and loads only after clearing the search field</t>
-  </si>
-  <si>
     <t>The favorite team does not appear by searching.</t>
   </si>
   <si>
-    <t>1- Open the app.
-2- Click on "فرقك" icon in the bottom bar.
-3- Click on "أضف فريقك" button.
-4- Type the favorite league in "بحث عن فرقة أو منتخب" search bar.
-5- Clear the text in  "بحث عن فرقة أو منتخب" search bar.
-6- Type new favorite league in "بحث عن فرقة أو منتخب" search bar.
-7- Select the new favorite league.</t>
-  </si>
-  <si>
     <t>The results of first favorite league displayed instead of the new.</t>
   </si>
   <si>
     <t>Correct results should be displayed.</t>
   </si>
   <si>
-    <t>1- Open the app.
-2- Click on "فرقك" icon in the bottom bar.
-3- Click on "Edit" icon in the top-right corner.
-4- Click on "Delete" icon beside the favorite team.
-5- Click on the "device's native back" button.</t>
-  </si>
-  <si>
-    <t>User should be redirected to "فرقك" Tab and the deleted team should not appear</t>
-  </si>
-  <si>
     <t>Deleted team still appears in the "فرقك" tab after deletion.</t>
   </si>
   <si>
-    <t>1- Open the application.
-2- Click on "فرقك" icon in the bottom bar.
-3- Click on "أضف فريقك" button.
-4- Type the favorite league in "بحث عن فرقة أو منتخب" search bar.
-5- Select the favorite league.</t>
-  </si>
-  <si>
-    <t>The list of teams should be displayed</t>
-  </si>
-  <si>
     <t>The list of teams is not displayed.</t>
   </si>
   <si>
@@ -166,12 +121,6 @@
   </si>
   <si>
     <t>All live match events should be displayed in real-time.</t>
-  </si>
-  <si>
-    <t>Latest news "اخر الاخبار" view for favourite teams should be scrollable in both portrait and landscape modes</t>
-  </si>
-  <si>
-    <t>Latest news "اخر الاخبار" view for favourite teams is scrollable in portrait mode only</t>
   </si>
   <si>
     <t>Critical</t>
@@ -195,31 +144,76 @@
 Network: Wi-Fi</t>
   </si>
   <si>
-    <t>1- open the app.
-2- Navigate to "فرقك" tab.
-3- Click on any team in your favorite list.
-4- Scroll in "أخبار" page.
-5- Rotate the screen to landscape mode 
-6- Scroll in "أخبار" page.</t>
-  </si>
-  <si>
     <t>Pre-condition</t>
-  </si>
-  <si>
-    <t>1- 
-2- Click on "فرقك" icon in the bottom bar.
-3- Click on "أضف فريقك" button.
-4- Type the favorite team in "بحث عن فرقة أو منتخب" search bar.</t>
-  </si>
-  <si>
-    <t>"أخر الاخبار" View for favorite teams is not scrollable in landscape mode</t>
-  </si>
-  <si>
-    <t>The app is already opened</t>
   </si>
   <si>
     <t>1- User added a favorite team.
 2-The app is already opened.</t>
+  </si>
+  <si>
+    <t>1- Click on "فرقك" tab in the bottom bar.
+2- Click on "Edit" icon in the top-right corner.
+3- Click on "Delete" icon beside the favorite team.
+4- Click on the "device's native back" button.</t>
+  </si>
+  <si>
+    <t>1- Click on "فرقك" tab in the bottom bar.
+2- Click on "أضف فريقك" button.
+3- Type the favorite league in "بحث عن فرقة أو منتخب" search bar.
+4- Clear the text in  "بحث عن فرقة أو منتخب" search bar.
+5- Type new favorite league in "بحث عن فرقة أو منتخب" search bar.
+6- Select the new favorite league.</t>
+  </si>
+  <si>
+    <t>1- Click on "فرقك" tab in the bottom bar.
+2- Click on "أضف فريقك" button.
+3- Type the favorite league in "بحث عن فرقة أو منتخب" search bar.
+4- Select the favorite league.</t>
+  </si>
+  <si>
+    <t>1- Click on "فرقك" tab in the bottom bar.
+2- Click on "أضف فريقك" button.
+3- Type the favorite team in "بحث عن فرقة أو منتخب" search bar.</t>
+  </si>
+  <si>
+    <t>The app is already opened.</t>
+  </si>
+  <si>
+    <t>1- Click on "فرقك" tab in the bottom bar.
+2- Click on any team in the favorite list.
+3- Scroll in "أخبار" page.
+4- Rotate the screen to landscape mode.
+5- Scroll in "أخبار" page.</t>
+  </si>
+  <si>
+    <t>1- Click on the “مباريات” tab in the bottom bar.
+2- Click on "live" button in the top menu.
+3- Click on any match in "مباريات مباشرة الان".
+4- Click on "دقيقة بدقيقة"</t>
+  </si>
+  <si>
+    <t>The list of teams should be displayed.</t>
+  </si>
+  <si>
+    <t>User should be redirected to "فرقك" Tab and the deleted team should not appear.</t>
+  </si>
+  <si>
+    <t>Latest news "اخر الاخبار" view for favourite teams should be scrollable in both portrait and landscape modes.</t>
+  </si>
+  <si>
+    <t>Latest news "اخر الاخبار" view for favourite teams is scrollable in portrait mode only.</t>
+  </si>
+  <si>
+    <t>"أخر الاخبار" View for favorite teams is not scrollable in landscape mode.</t>
+  </si>
+  <si>
+    <t>Wrong league results displayed after updating the keyword in "بحث عن فرقة او منتخب" search bar.</t>
+  </si>
+  <si>
+    <t>League does not open on selection and loads only after clearing the search field.</t>
+  </si>
+  <si>
+    <t>User cannot add favorite team via search functionality.</t>
   </si>
 </sst>
 </file>
@@ -271,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -279,12 +273,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -292,19 +301,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,270 +623,270 @@
     <col min="12" max="12" width="17.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="K7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>24</v>
+      <c r="L7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
